--- a/Resources/2019_Asian.xlsx
+++ b/Resources/2019_Asian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\git\trilogy\homework\UCF_Data_Bootcamp_Project1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A5F13D-731F-465E-AA32-31581865D73B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F894D7-F058-450E-A822-308CD39257FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,22 +1082,22 @@
     </r>
   </si>
   <si>
-    <t>Doctorate degree</t>
+    <t>Total, 25 years and over</t>
+  </si>
+  <si>
+    <t>Bachelors degree or more</t>
+  </si>
+  <si>
+    <t>Bachelors degree</t>
+  </si>
+  <si>
+    <t>Master's degree</t>
   </si>
   <si>
     <t>Professional degree</t>
   </si>
   <si>
-    <t>Masters degree</t>
-  </si>
-  <si>
-    <t>Bachelors degree</t>
-  </si>
-  <si>
-    <t>Bachelors degree or more</t>
-  </si>
-  <si>
-    <t>Total, 25 years and over</t>
+    <t>Doctorate degree</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1259,9 +1259,6 @@
     </xf>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1614,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView showGridLines="0" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="AR97" sqref="A97:XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1625,581 +1622,581 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
     </row>
     <row r="3" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
     </row>
     <row r="4" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
     </row>
     <row r="5" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14"/>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="14"/>
-      <c r="AT5" s="14"/>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
     </row>
     <row r="6" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="14"/>
-      <c r="AR6" s="14"/>
-      <c r="AS6" s="14"/>
-      <c r="AT6" s="14"/>
-      <c r="AU6" s="14"/>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="14"/>
-      <c r="AY6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
     </row>
     <row r="7" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
     </row>
     <row r="8" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="S8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="U8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V8" s="16" t="s">
+      <c r="V8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="W8" s="16" t="s">
+      <c r="W8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="16" t="s">
+      <c r="X8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Y8" s="16" t="s">
+      <c r="Y8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Z8" s="16" t="s">
+      <c r="Z8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AA8" s="16" t="s">
+      <c r="AA8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="16" t="s">
+      <c r="AB8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AC8" s="16" t="s">
+      <c r="AC8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AD8" s="16" t="s">
+      <c r="AD8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AE8" s="16" t="s">
+      <c r="AE8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AF8" s="16" t="s">
+      <c r="AF8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AG8" s="16" t="s">
+      <c r="AG8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AH8" s="16" t="s">
+      <c r="AH8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AI8" s="16" t="s">
+      <c r="AI8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AJ8" s="16" t="s">
+      <c r="AJ8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AK8" s="16" t="s">
+      <c r="AK8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AL8" s="16" t="s">
+      <c r="AL8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AM8" s="16" t="s">
+      <c r="AM8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AN8" s="16" t="s">
+      <c r="AN8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AO8" s="16" t="s">
+      <c r="AO8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AP8" s="16" t="s">
+      <c r="AP8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AQ8" s="16" t="s">
+      <c r="AQ8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AR8" s="16" t="s">
+      <c r="AR8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AS8" s="16"/>
-      <c r="AT8" s="16" t="s">
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="16" t="s">
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AW8" s="16"/>
-      <c r="AX8" s="16" t="s">
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AY8" s="16"/>
+      <c r="AY8" s="15"/>
     </row>
     <row r="9" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="16"/>
-      <c r="AQ9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
       <c r="AR9" s="1" t="s">
         <v>50</v>
       </c>
@@ -2381,251 +2378,251 @@
       </c>
     </row>
     <row r="11" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="15"/>
-      <c r="AU11" s="15"/>
-      <c r="AV11" s="15"/>
-      <c r="AW11" s="15"/>
-      <c r="AX11" s="15"/>
-      <c r="AY11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
     </row>
     <row r="12" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="P12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="R12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="S12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="T12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V12" s="16" t="s">
+      <c r="V12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="W12" s="16" t="s">
+      <c r="W12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X12" s="16" t="s">
+      <c r="X12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Y12" s="16" t="s">
+      <c r="Y12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Z12" s="16" t="s">
+      <c r="Z12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AA12" s="16" t="s">
+      <c r="AA12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AB12" s="16" t="s">
+      <c r="AB12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AC12" s="16" t="s">
+      <c r="AC12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AD12" s="16" t="s">
+      <c r="AD12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AE12" s="16" t="s">
+      <c r="AE12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AF12" s="16" t="s">
+      <c r="AF12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AG12" s="16" t="s">
+      <c r="AG12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AH12" s="16" t="s">
+      <c r="AH12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AI12" s="16" t="s">
+      <c r="AI12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AJ12" s="16" t="s">
+      <c r="AJ12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AK12" s="16" t="s">
+      <c r="AK12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AL12" s="16" t="s">
+      <c r="AL12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AM12" s="16" t="s">
+      <c r="AM12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AN12" s="16" t="s">
+      <c r="AN12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AO12" s="16" t="s">
+      <c r="AO12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AP12" s="16" t="s">
+      <c r="AP12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AQ12" s="16" t="s">
+      <c r="AQ12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AR12" s="16" t="s">
+      <c r="AR12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AS12" s="16"/>
-      <c r="AT12" s="16" t="s">
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AU12" s="16"/>
-      <c r="AV12" s="16" t="s">
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AW12" s="16"/>
-      <c r="AX12" s="16" t="s">
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AY12" s="16"/>
+      <c r="AY12" s="15"/>
     </row>
     <row r="13" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="16"/>
-      <c r="AP13" s="16"/>
-      <c r="AQ13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
       <c r="AR13" s="1" t="s">
         <v>50</v>
       </c>
@@ -3272,251 +3269,251 @@
       </c>
     </row>
     <row r="18" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="15"/>
-      <c r="AR18" s="15"/>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="15"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="15"/>
-      <c r="AW18" s="15"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
     </row>
     <row r="19" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="16" t="s">
+      <c r="O19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="16" t="s">
+      <c r="P19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="16" t="s">
+      <c r="Q19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="16" t="s">
+      <c r="R19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="16" t="s">
+      <c r="S19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T19" s="16" t="s">
+      <c r="T19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U19" s="16" t="s">
+      <c r="U19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V19" s="16" t="s">
+      <c r="V19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="W19" s="16" t="s">
+      <c r="W19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X19" s="16" t="s">
+      <c r="X19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Y19" s="16" t="s">
+      <c r="Y19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Z19" s="16" t="s">
+      <c r="Z19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AA19" s="16" t="s">
+      <c r="AA19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AB19" s="16" t="s">
+      <c r="AB19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AC19" s="16" t="s">
+      <c r="AC19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AD19" s="16" t="s">
+      <c r="AD19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AE19" s="16" t="s">
+      <c r="AE19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AF19" s="16" t="s">
+      <c r="AF19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AG19" s="16" t="s">
+      <c r="AG19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AH19" s="16" t="s">
+      <c r="AH19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AI19" s="16" t="s">
+      <c r="AI19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AJ19" s="16" t="s">
+      <c r="AJ19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AK19" s="16" t="s">
+      <c r="AK19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AL19" s="16" t="s">
+      <c r="AL19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AM19" s="16" t="s">
+      <c r="AM19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AN19" s="16" t="s">
+      <c r="AN19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AO19" s="16" t="s">
+      <c r="AO19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AP19" s="16" t="s">
+      <c r="AP19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AQ19" s="16" t="s">
+      <c r="AQ19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AR19" s="16" t="s">
+      <c r="AR19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AS19" s="16"/>
-      <c r="AT19" s="16" t="s">
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="16" t="s">
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AW19" s="16"/>
-      <c r="AX19" s="16" t="s">
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AY19" s="16"/>
+      <c r="AY19" s="15"/>
     </row>
     <row r="20" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="16"/>
-      <c r="AP20" s="16"/>
-      <c r="AQ20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
       <c r="AR20" s="1" t="s">
         <v>50</v>
       </c>
@@ -4163,251 +4160,251 @@
       </c>
     </row>
     <row r="25" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="15"/>
-      <c r="AM25" s="15"/>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="15"/>
-      <c r="AR25" s="15"/>
-      <c r="AS25" s="15"/>
-      <c r="AT25" s="15"/>
-      <c r="AU25" s="15"/>
-      <c r="AV25" s="15"/>
-      <c r="AW25" s="15"/>
-      <c r="AX25" s="15"/>
-      <c r="AY25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
     </row>
     <row r="26" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="M26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="16" t="s">
+      <c r="N26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O26" s="16" t="s">
+      <c r="O26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="16" t="s">
+      <c r="P26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q26" s="16" t="s">
+      <c r="Q26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R26" s="16" t="s">
+      <c r="R26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="16" t="s">
+      <c r="S26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T26" s="16" t="s">
+      <c r="T26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U26" s="16" t="s">
+      <c r="U26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V26" s="16" t="s">
+      <c r="V26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="W26" s="16" t="s">
+      <c r="W26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X26" s="16" t="s">
+      <c r="X26" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Y26" s="16" t="s">
+      <c r="Y26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Z26" s="16" t="s">
+      <c r="Z26" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AA26" s="16" t="s">
+      <c r="AA26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AB26" s="16" t="s">
+      <c r="AB26" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AC26" s="16" t="s">
+      <c r="AC26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AD26" s="16" t="s">
+      <c r="AD26" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AE26" s="16" t="s">
+      <c r="AE26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AF26" s="16" t="s">
+      <c r="AF26" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AG26" s="16" t="s">
+      <c r="AG26" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AH26" s="16" t="s">
+      <c r="AH26" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AI26" s="16" t="s">
+      <c r="AI26" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AJ26" s="16" t="s">
+      <c r="AJ26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AK26" s="16" t="s">
+      <c r="AK26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AL26" s="16" t="s">
+      <c r="AL26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AM26" s="16" t="s">
+      <c r="AM26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AN26" s="16" t="s">
+      <c r="AN26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AO26" s="16" t="s">
+      <c r="AO26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AP26" s="16" t="s">
+      <c r="AP26" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AQ26" s="16" t="s">
+      <c r="AQ26" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AR26" s="16" t="s">
+      <c r="AR26" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AS26" s="16"/>
-      <c r="AT26" s="16" t="s">
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AU26" s="16"/>
-      <c r="AV26" s="16" t="s">
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AW26" s="16"/>
-      <c r="AX26" s="16" t="s">
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AY26" s="16"/>
+      <c r="AY26" s="15"/>
     </row>
     <row r="27" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="16"/>
-      <c r="AN27" s="16"/>
-      <c r="AO27" s="16"/>
-      <c r="AP27" s="16"/>
-      <c r="AQ27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
       <c r="AR27" s="1" t="s">
         <v>50</v>
       </c>
@@ -5209,251 +5206,251 @@
       </c>
     </row>
     <row r="33" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="15"/>
-      <c r="AH33" s="15"/>
-      <c r="AI33" s="15"/>
-      <c r="AJ33" s="15"/>
-      <c r="AK33" s="15"/>
-      <c r="AL33" s="15"/>
-      <c r="AM33" s="15"/>
-      <c r="AN33" s="15"/>
-      <c r="AO33" s="15"/>
-      <c r="AP33" s="15"/>
-      <c r="AQ33" s="15"/>
-      <c r="AR33" s="15"/>
-      <c r="AS33" s="15"/>
-      <c r="AT33" s="15"/>
-      <c r="AU33" s="15"/>
-      <c r="AV33" s="15"/>
-      <c r="AW33" s="15"/>
-      <c r="AX33" s="15"/>
-      <c r="AY33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="14"/>
+      <c r="AM33" s="14"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="14"/>
+      <c r="AS33" s="14"/>
+      <c r="AT33" s="14"/>
+      <c r="AU33" s="14"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="14"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="14"/>
     </row>
     <row r="34" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="J34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="L34" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M34" s="16" t="s">
+      <c r="M34" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N34" s="16" t="s">
+      <c r="N34" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O34" s="16" t="s">
+      <c r="O34" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="16" t="s">
+      <c r="P34" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q34" s="16" t="s">
+      <c r="Q34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="16" t="s">
+      <c r="R34" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S34" s="16" t="s">
+      <c r="S34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T34" s="16" t="s">
+      <c r="T34" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U34" s="16" t="s">
+      <c r="U34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V34" s="16" t="s">
+      <c r="V34" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="W34" s="16" t="s">
+      <c r="W34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X34" s="16" t="s">
+      <c r="X34" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Y34" s="16" t="s">
+      <c r="Y34" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Z34" s="16" t="s">
+      <c r="Z34" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AA34" s="16" t="s">
+      <c r="AA34" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AB34" s="16" t="s">
+      <c r="AB34" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AC34" s="16" t="s">
+      <c r="AC34" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AD34" s="16" t="s">
+      <c r="AD34" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AE34" s="16" t="s">
+      <c r="AE34" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AF34" s="16" t="s">
+      <c r="AF34" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AG34" s="16" t="s">
+      <c r="AG34" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AH34" s="16" t="s">
+      <c r="AH34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AI34" s="16" t="s">
+      <c r="AI34" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AJ34" s="16" t="s">
+      <c r="AJ34" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AK34" s="16" t="s">
+      <c r="AK34" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AL34" s="16" t="s">
+      <c r="AL34" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AM34" s="16" t="s">
+      <c r="AM34" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AN34" s="16" t="s">
+      <c r="AN34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AO34" s="16" t="s">
+      <c r="AO34" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AP34" s="16" t="s">
+      <c r="AP34" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AQ34" s="16" t="s">
+      <c r="AQ34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AR34" s="16" t="s">
+      <c r="AR34" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AS34" s="16"/>
-      <c r="AT34" s="16" t="s">
+      <c r="AS34" s="15"/>
+      <c r="AT34" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AU34" s="16"/>
-      <c r="AV34" s="16" t="s">
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AW34" s="16"/>
-      <c r="AX34" s="16" t="s">
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AY34" s="16"/>
+      <c r="AY34" s="15"/>
     </row>
     <row r="35" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="16"/>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="16"/>
-      <c r="AM35" s="16"/>
-      <c r="AN35" s="16"/>
-      <c r="AO35" s="16"/>
-      <c r="AP35" s="16"/>
-      <c r="AQ35" s="16"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="15"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
+      <c r="AO35" s="15"/>
+      <c r="AP35" s="15"/>
+      <c r="AQ35" s="15"/>
       <c r="AR35" s="1" t="s">
         <v>50</v>
       </c>
@@ -7030,251 +7027,251 @@
       </c>
     </row>
     <row r="46" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="15"/>
-      <c r="AE46" s="15"/>
-      <c r="AF46" s="15"/>
-      <c r="AG46" s="15"/>
-      <c r="AH46" s="15"/>
-      <c r="AI46" s="15"/>
-      <c r="AJ46" s="15"/>
-      <c r="AK46" s="15"/>
-      <c r="AL46" s="15"/>
-      <c r="AM46" s="15"/>
-      <c r="AN46" s="15"/>
-      <c r="AO46" s="15"/>
-      <c r="AP46" s="15"/>
-      <c r="AQ46" s="15"/>
-      <c r="AR46" s="15"/>
-      <c r="AS46" s="15"/>
-      <c r="AT46" s="15"/>
-      <c r="AU46" s="15"/>
-      <c r="AV46" s="15"/>
-      <c r="AW46" s="15"/>
-      <c r="AX46" s="15"/>
-      <c r="AY46" s="15"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="14"/>
+      <c r="AM46" s="14"/>
+      <c r="AN46" s="14"/>
+      <c r="AO46" s="14"/>
+      <c r="AP46" s="14"/>
+      <c r="AQ46" s="14"/>
+      <c r="AR46" s="14"/>
+      <c r="AS46" s="14"/>
+      <c r="AT46" s="14"/>
+      <c r="AU46" s="14"/>
+      <c r="AV46" s="14"/>
+      <c r="AW46" s="14"/>
+      <c r="AX46" s="14"/>
+      <c r="AY46" s="14"/>
     </row>
     <row r="47" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I47" s="16" t="s">
+      <c r="I47" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="16" t="s">
+      <c r="J47" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="K47" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="16" t="s">
+      <c r="L47" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M47" s="16" t="s">
+      <c r="M47" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N47" s="16" t="s">
+      <c r="N47" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O47" s="16" t="s">
+      <c r="O47" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="16" t="s">
+      <c r="P47" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q47" s="16" t="s">
+      <c r="Q47" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R47" s="16" t="s">
+      <c r="R47" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S47" s="16" t="s">
+      <c r="S47" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T47" s="16" t="s">
+      <c r="T47" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U47" s="16" t="s">
+      <c r="U47" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V47" s="16" t="s">
+      <c r="V47" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="W47" s="16" t="s">
+      <c r="W47" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X47" s="16" t="s">
+      <c r="X47" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Y47" s="16" t="s">
+      <c r="Y47" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Z47" s="16" t="s">
+      <c r="Z47" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AA47" s="16" t="s">
+      <c r="AA47" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AB47" s="16" t="s">
+      <c r="AB47" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AC47" s="16" t="s">
+      <c r="AC47" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AD47" s="16" t="s">
+      <c r="AD47" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AE47" s="16" t="s">
+      <c r="AE47" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AF47" s="16" t="s">
+      <c r="AF47" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AG47" s="16" t="s">
+      <c r="AG47" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AH47" s="16" t="s">
+      <c r="AH47" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AI47" s="16" t="s">
+      <c r="AI47" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AJ47" s="16" t="s">
+      <c r="AJ47" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AK47" s="16" t="s">
+      <c r="AK47" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AL47" s="16" t="s">
+      <c r="AL47" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AM47" s="16" t="s">
+      <c r="AM47" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AN47" s="16" t="s">
+      <c r="AN47" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AO47" s="16" t="s">
+      <c r="AO47" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AP47" s="16" t="s">
+      <c r="AP47" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AQ47" s="16" t="s">
+      <c r="AQ47" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AR47" s="16" t="s">
+      <c r="AR47" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AS47" s="16"/>
-      <c r="AT47" s="16" t="s">
+      <c r="AS47" s="15"/>
+      <c r="AT47" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AU47" s="16"/>
-      <c r="AV47" s="16" t="s">
+      <c r="AU47" s="15"/>
+      <c r="AV47" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AW47" s="16"/>
-      <c r="AX47" s="16" t="s">
+      <c r="AW47" s="15"/>
+      <c r="AX47" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AY47" s="16"/>
+      <c r="AY47" s="15"/>
     </row>
     <row r="48" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="16"/>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="16"/>
-      <c r="AC48" s="16"/>
-      <c r="AD48" s="16"/>
-      <c r="AE48" s="16"/>
-      <c r="AF48" s="16"/>
-      <c r="AG48" s="16"/>
-      <c r="AH48" s="16"/>
-      <c r="AI48" s="16"/>
-      <c r="AJ48" s="16"/>
-      <c r="AK48" s="16"/>
-      <c r="AL48" s="16"/>
-      <c r="AM48" s="16"/>
-      <c r="AN48" s="16"/>
-      <c r="AO48" s="16"/>
-      <c r="AP48" s="16"/>
-      <c r="AQ48" s="16"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="15"/>
+      <c r="AK48" s="15"/>
+      <c r="AL48" s="15"/>
+      <c r="AM48" s="15"/>
+      <c r="AN48" s="15"/>
+      <c r="AO48" s="15"/>
+      <c r="AP48" s="15"/>
+      <c r="AQ48" s="15"/>
       <c r="AR48" s="1" t="s">
         <v>50</v>
       </c>
@@ -9316,251 +9313,251 @@
       </c>
     </row>
     <row r="62" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="15"/>
-      <c r="AA62" s="15"/>
-      <c r="AB62" s="15"/>
-      <c r="AC62" s="15"/>
-      <c r="AD62" s="15"/>
-      <c r="AE62" s="15"/>
-      <c r="AF62" s="15"/>
-      <c r="AG62" s="15"/>
-      <c r="AH62" s="15"/>
-      <c r="AI62" s="15"/>
-      <c r="AJ62" s="15"/>
-      <c r="AK62" s="15"/>
-      <c r="AL62" s="15"/>
-      <c r="AM62" s="15"/>
-      <c r="AN62" s="15"/>
-      <c r="AO62" s="15"/>
-      <c r="AP62" s="15"/>
-      <c r="AQ62" s="15"/>
-      <c r="AR62" s="15"/>
-      <c r="AS62" s="15"/>
-      <c r="AT62" s="15"/>
-      <c r="AU62" s="15"/>
-      <c r="AV62" s="15"/>
-      <c r="AW62" s="15"/>
-      <c r="AX62" s="15"/>
-      <c r="AY62" s="15"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="14"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="14"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="14"/>
+      <c r="AC62" s="14"/>
+      <c r="AD62" s="14"/>
+      <c r="AE62" s="14"/>
+      <c r="AF62" s="14"/>
+      <c r="AG62" s="14"/>
+      <c r="AH62" s="14"/>
+      <c r="AI62" s="14"/>
+      <c r="AJ62" s="14"/>
+      <c r="AK62" s="14"/>
+      <c r="AL62" s="14"/>
+      <c r="AM62" s="14"/>
+      <c r="AN62" s="14"/>
+      <c r="AO62" s="14"/>
+      <c r="AP62" s="14"/>
+      <c r="AQ62" s="14"/>
+      <c r="AR62" s="14"/>
+      <c r="AS62" s="14"/>
+      <c r="AT62" s="14"/>
+      <c r="AU62" s="14"/>
+      <c r="AV62" s="14"/>
+      <c r="AW62" s="14"/>
+      <c r="AX62" s="14"/>
+      <c r="AY62" s="14"/>
     </row>
     <row r="63" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="16" t="s">
+      <c r="H63" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I63" s="16" t="s">
+      <c r="I63" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J63" s="16" t="s">
+      <c r="J63" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K63" s="16" t="s">
+      <c r="K63" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L63" s="16" t="s">
+      <c r="L63" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M63" s="16" t="s">
+      <c r="M63" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N63" s="16" t="s">
+      <c r="N63" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O63" s="16" t="s">
+      <c r="O63" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P63" s="16" t="s">
+      <c r="P63" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q63" s="16" t="s">
+      <c r="Q63" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R63" s="16" t="s">
+      <c r="R63" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S63" s="16" t="s">
+      <c r="S63" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T63" s="16" t="s">
+      <c r="T63" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U63" s="16" t="s">
+      <c r="U63" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V63" s="16" t="s">
+      <c r="V63" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="W63" s="16" t="s">
+      <c r="W63" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X63" s="16" t="s">
+      <c r="X63" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Y63" s="16" t="s">
+      <c r="Y63" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Z63" s="16" t="s">
+      <c r="Z63" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AA63" s="16" t="s">
+      <c r="AA63" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AB63" s="16" t="s">
+      <c r="AB63" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AC63" s="16" t="s">
+      <c r="AC63" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AD63" s="16" t="s">
+      <c r="AD63" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AE63" s="16" t="s">
+      <c r="AE63" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AF63" s="16" t="s">
+      <c r="AF63" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AG63" s="16" t="s">
+      <c r="AG63" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AH63" s="16" t="s">
+      <c r="AH63" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AI63" s="16" t="s">
+      <c r="AI63" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AJ63" s="16" t="s">
+      <c r="AJ63" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AK63" s="16" t="s">
+      <c r="AK63" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AL63" s="16" t="s">
+      <c r="AL63" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AM63" s="16" t="s">
+      <c r="AM63" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AN63" s="16" t="s">
+      <c r="AN63" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AO63" s="16" t="s">
+      <c r="AO63" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AP63" s="16" t="s">
+      <c r="AP63" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AQ63" s="16" t="s">
+      <c r="AQ63" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AR63" s="16" t="s">
+      <c r="AR63" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AS63" s="16"/>
-      <c r="AT63" s="16" t="s">
+      <c r="AS63" s="15"/>
+      <c r="AT63" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AU63" s="16"/>
-      <c r="AV63" s="16" t="s">
+      <c r="AU63" s="15"/>
+      <c r="AV63" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AW63" s="16"/>
-      <c r="AX63" s="16" t="s">
+      <c r="AW63" s="15"/>
+      <c r="AX63" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AY63" s="16"/>
+      <c r="AY63" s="15"/>
     </row>
     <row r="64" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="16"/>
-      <c r="AB64" s="16"/>
-      <c r="AC64" s="16"/>
-      <c r="AD64" s="16"/>
-      <c r="AE64" s="16"/>
-      <c r="AF64" s="16"/>
-      <c r="AG64" s="16"/>
-      <c r="AH64" s="16"/>
-      <c r="AI64" s="16"/>
-      <c r="AJ64" s="16"/>
-      <c r="AK64" s="16"/>
-      <c r="AL64" s="16"/>
-      <c r="AM64" s="16"/>
-      <c r="AN64" s="16"/>
-      <c r="AO64" s="16"/>
-      <c r="AP64" s="16"/>
-      <c r="AQ64" s="16"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="15"/>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="15"/>
+      <c r="AF64" s="15"/>
+      <c r="AG64" s="15"/>
+      <c r="AH64" s="15"/>
+      <c r="AI64" s="15"/>
+      <c r="AJ64" s="15"/>
+      <c r="AK64" s="15"/>
+      <c r="AL64" s="15"/>
+      <c r="AM64" s="15"/>
+      <c r="AN64" s="15"/>
+      <c r="AO64" s="15"/>
+      <c r="AP64" s="15"/>
+      <c r="AQ64" s="15"/>
       <c r="AR64" s="1" t="s">
         <v>50</v>
       </c>
@@ -10672,251 +10669,251 @@
       </c>
     </row>
     <row r="72" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
-      <c r="U72" s="15"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="15"/>
-      <c r="X72" s="15"/>
-      <c r="Y72" s="15"/>
-      <c r="Z72" s="15"/>
-      <c r="AA72" s="15"/>
-      <c r="AB72" s="15"/>
-      <c r="AC72" s="15"/>
-      <c r="AD72" s="15"/>
-      <c r="AE72" s="15"/>
-      <c r="AF72" s="15"/>
-      <c r="AG72" s="15"/>
-      <c r="AH72" s="15"/>
-      <c r="AI72" s="15"/>
-      <c r="AJ72" s="15"/>
-      <c r="AK72" s="15"/>
-      <c r="AL72" s="15"/>
-      <c r="AM72" s="15"/>
-      <c r="AN72" s="15"/>
-      <c r="AO72" s="15"/>
-      <c r="AP72" s="15"/>
-      <c r="AQ72" s="15"/>
-      <c r="AR72" s="15"/>
-      <c r="AS72" s="15"/>
-      <c r="AT72" s="15"/>
-      <c r="AU72" s="15"/>
-      <c r="AV72" s="15"/>
-      <c r="AW72" s="15"/>
-      <c r="AX72" s="15"/>
-      <c r="AY72" s="15"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
+      <c r="X72" s="14"/>
+      <c r="Y72" s="14"/>
+      <c r="Z72" s="14"/>
+      <c r="AA72" s="14"/>
+      <c r="AB72" s="14"/>
+      <c r="AC72" s="14"/>
+      <c r="AD72" s="14"/>
+      <c r="AE72" s="14"/>
+      <c r="AF72" s="14"/>
+      <c r="AG72" s="14"/>
+      <c r="AH72" s="14"/>
+      <c r="AI72" s="14"/>
+      <c r="AJ72" s="14"/>
+      <c r="AK72" s="14"/>
+      <c r="AL72" s="14"/>
+      <c r="AM72" s="14"/>
+      <c r="AN72" s="14"/>
+      <c r="AO72" s="14"/>
+      <c r="AP72" s="14"/>
+      <c r="AQ72" s="14"/>
+      <c r="AR72" s="14"/>
+      <c r="AS72" s="14"/>
+      <c r="AT72" s="14"/>
+      <c r="AU72" s="14"/>
+      <c r="AV72" s="14"/>
+      <c r="AW72" s="14"/>
+      <c r="AX72" s="14"/>
+      <c r="AY72" s="14"/>
     </row>
     <row r="73" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="16" t="s">
+      <c r="H73" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I73" s="16" t="s">
+      <c r="I73" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J73" s="16" t="s">
+      <c r="J73" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K73" s="16" t="s">
+      <c r="K73" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L73" s="16" t="s">
+      <c r="L73" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M73" s="16" t="s">
+      <c r="M73" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N73" s="16" t="s">
+      <c r="N73" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O73" s="16" t="s">
+      <c r="O73" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="16" t="s">
+      <c r="P73" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q73" s="16" t="s">
+      <c r="Q73" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R73" s="16" t="s">
+      <c r="R73" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S73" s="16" t="s">
+      <c r="S73" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T73" s="16" t="s">
+      <c r="T73" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U73" s="16" t="s">
+      <c r="U73" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V73" s="16" t="s">
+      <c r="V73" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="W73" s="16" t="s">
+      <c r="W73" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X73" s="16" t="s">
+      <c r="X73" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Y73" s="16" t="s">
+      <c r="Y73" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Z73" s="16" t="s">
+      <c r="Z73" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AA73" s="16" t="s">
+      <c r="AA73" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AB73" s="16" t="s">
+      <c r="AB73" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AC73" s="16" t="s">
+      <c r="AC73" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AD73" s="16" t="s">
+      <c r="AD73" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AE73" s="16" t="s">
+      <c r="AE73" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AF73" s="16" t="s">
+      <c r="AF73" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AG73" s="16" t="s">
+      <c r="AG73" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AH73" s="16" t="s">
+      <c r="AH73" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AI73" s="16" t="s">
+      <c r="AI73" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AJ73" s="16" t="s">
+      <c r="AJ73" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AK73" s="16" t="s">
+      <c r="AK73" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AL73" s="16" t="s">
+      <c r="AL73" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AM73" s="16" t="s">
+      <c r="AM73" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AN73" s="16" t="s">
+      <c r="AN73" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AO73" s="16" t="s">
+      <c r="AO73" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AP73" s="16" t="s">
+      <c r="AP73" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AQ73" s="16" t="s">
+      <c r="AQ73" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AR73" s="16" t="s">
+      <c r="AR73" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AS73" s="16"/>
-      <c r="AT73" s="16" t="s">
+      <c r="AS73" s="15"/>
+      <c r="AT73" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AU73" s="16"/>
-      <c r="AV73" s="16" t="s">
+      <c r="AU73" s="15"/>
+      <c r="AV73" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AW73" s="16"/>
-      <c r="AX73" s="16" t="s">
+      <c r="AW73" s="15"/>
+      <c r="AX73" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AY73" s="16"/>
+      <c r="AY73" s="15"/>
     </row>
     <row r="74" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="16"/>
-      <c r="X74" s="16"/>
-      <c r="Y74" s="16"/>
-      <c r="Z74" s="16"/>
-      <c r="AA74" s="16"/>
-      <c r="AB74" s="16"/>
-      <c r="AC74" s="16"/>
-      <c r="AD74" s="16"/>
-      <c r="AE74" s="16"/>
-      <c r="AF74" s="16"/>
-      <c r="AG74" s="16"/>
-      <c r="AH74" s="16"/>
-      <c r="AI74" s="16"/>
-      <c r="AJ74" s="16"/>
-      <c r="AK74" s="16"/>
-      <c r="AL74" s="16"/>
-      <c r="AM74" s="16"/>
-      <c r="AN74" s="16"/>
-      <c r="AO74" s="16"/>
-      <c r="AP74" s="16"/>
-      <c r="AQ74" s="16"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="15"/>
+      <c r="Z74" s="15"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
+      <c r="AE74" s="15"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="15"/>
+      <c r="AH74" s="15"/>
+      <c r="AI74" s="15"/>
+      <c r="AJ74" s="15"/>
+      <c r="AK74" s="15"/>
+      <c r="AL74" s="15"/>
+      <c r="AM74" s="15"/>
+      <c r="AN74" s="15"/>
+      <c r="AO74" s="15"/>
+      <c r="AP74" s="15"/>
+      <c r="AQ74" s="15"/>
       <c r="AR74" s="1" t="s">
         <v>50</v>
       </c>
@@ -12028,251 +12025,251 @@
       </c>
     </row>
     <row r="82" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="15"/>
-      <c r="T82" s="15"/>
-      <c r="U82" s="15"/>
-      <c r="V82" s="15"/>
-      <c r="W82" s="15"/>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="15"/>
-      <c r="AA82" s="15"/>
-      <c r="AB82" s="15"/>
-      <c r="AC82" s="15"/>
-      <c r="AD82" s="15"/>
-      <c r="AE82" s="15"/>
-      <c r="AF82" s="15"/>
-      <c r="AG82" s="15"/>
-      <c r="AH82" s="15"/>
-      <c r="AI82" s="15"/>
-      <c r="AJ82" s="15"/>
-      <c r="AK82" s="15"/>
-      <c r="AL82" s="15"/>
-      <c r="AM82" s="15"/>
-      <c r="AN82" s="15"/>
-      <c r="AO82" s="15"/>
-      <c r="AP82" s="15"/>
-      <c r="AQ82" s="15"/>
-      <c r="AR82" s="15"/>
-      <c r="AS82" s="15"/>
-      <c r="AT82" s="15"/>
-      <c r="AU82" s="15"/>
-      <c r="AV82" s="15"/>
-      <c r="AW82" s="15"/>
-      <c r="AX82" s="15"/>
-      <c r="AY82" s="15"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="14"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="14"/>
+      <c r="W82" s="14"/>
+      <c r="X82" s="14"/>
+      <c r="Y82" s="14"/>
+      <c r="Z82" s="14"/>
+      <c r="AA82" s="14"/>
+      <c r="AB82" s="14"/>
+      <c r="AC82" s="14"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="14"/>
+      <c r="AF82" s="14"/>
+      <c r="AG82" s="14"/>
+      <c r="AH82" s="14"/>
+      <c r="AI82" s="14"/>
+      <c r="AJ82" s="14"/>
+      <c r="AK82" s="14"/>
+      <c r="AL82" s="14"/>
+      <c r="AM82" s="14"/>
+      <c r="AN82" s="14"/>
+      <c r="AO82" s="14"/>
+      <c r="AP82" s="14"/>
+      <c r="AQ82" s="14"/>
+      <c r="AR82" s="14"/>
+      <c r="AS82" s="14"/>
+      <c r="AT82" s="14"/>
+      <c r="AU82" s="14"/>
+      <c r="AV82" s="14"/>
+      <c r="AW82" s="14"/>
+      <c r="AX82" s="14"/>
+      <c r="AY82" s="14"/>
     </row>
     <row r="83" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I83" s="16" t="s">
+      <c r="I83" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J83" s="16" t="s">
+      <c r="J83" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K83" s="16" t="s">
+      <c r="K83" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="16" t="s">
+      <c r="L83" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M83" s="16" t="s">
+      <c r="M83" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N83" s="16" t="s">
+      <c r="N83" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O83" s="16" t="s">
+      <c r="O83" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P83" s="16" t="s">
+      <c r="P83" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q83" s="16" t="s">
+      <c r="Q83" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R83" s="16" t="s">
+      <c r="R83" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S83" s="16" t="s">
+      <c r="S83" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T83" s="16" t="s">
+      <c r="T83" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U83" s="16" t="s">
+      <c r="U83" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V83" s="16" t="s">
+      <c r="V83" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="W83" s="16" t="s">
+      <c r="W83" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X83" s="16" t="s">
+      <c r="X83" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Y83" s="16" t="s">
+      <c r="Y83" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Z83" s="16" t="s">
+      <c r="Z83" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AA83" s="16" t="s">
+      <c r="AA83" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AB83" s="16" t="s">
+      <c r="AB83" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AC83" s="16" t="s">
+      <c r="AC83" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AD83" s="16" t="s">
+      <c r="AD83" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AE83" s="16" t="s">
+      <c r="AE83" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AF83" s="16" t="s">
+      <c r="AF83" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AG83" s="16" t="s">
+      <c r="AG83" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AH83" s="16" t="s">
+      <c r="AH83" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AI83" s="16" t="s">
+      <c r="AI83" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AJ83" s="16" t="s">
+      <c r="AJ83" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AK83" s="16" t="s">
+      <c r="AK83" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AL83" s="16" t="s">
+      <c r="AL83" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AM83" s="16" t="s">
+      <c r="AM83" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AN83" s="16" t="s">
+      <c r="AN83" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AO83" s="16" t="s">
+      <c r="AO83" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AP83" s="16" t="s">
+      <c r="AP83" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AQ83" s="16" t="s">
+      <c r="AQ83" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AR83" s="16" t="s">
+      <c r="AR83" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AS83" s="16"/>
-      <c r="AT83" s="16" t="s">
+      <c r="AS83" s="15"/>
+      <c r="AT83" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AU83" s="16"/>
-      <c r="AV83" s="16" t="s">
+      <c r="AU83" s="15"/>
+      <c r="AV83" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AW83" s="16"/>
-      <c r="AX83" s="16" t="s">
+      <c r="AW83" s="15"/>
+      <c r="AX83" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AY83" s="16"/>
+      <c r="AY83" s="15"/>
     </row>
     <row r="84" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
-      <c r="S84" s="16"/>
-      <c r="T84" s="16"/>
-      <c r="U84" s="16"/>
-      <c r="V84" s="16"/>
-      <c r="W84" s="16"/>
-      <c r="X84" s="16"/>
-      <c r="Y84" s="16"/>
-      <c r="Z84" s="16"/>
-      <c r="AA84" s="16"/>
-      <c r="AB84" s="16"/>
-      <c r="AC84" s="16"/>
-      <c r="AD84" s="16"/>
-      <c r="AE84" s="16"/>
-      <c r="AF84" s="16"/>
-      <c r="AG84" s="16"/>
-      <c r="AH84" s="16"/>
-      <c r="AI84" s="16"/>
-      <c r="AJ84" s="16"/>
-      <c r="AK84" s="16"/>
-      <c r="AL84" s="16"/>
-      <c r="AM84" s="16"/>
-      <c r="AN84" s="16"/>
-      <c r="AO84" s="16"/>
-      <c r="AP84" s="16"/>
-      <c r="AQ84" s="16"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="15"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="15"/>
+      <c r="AH84" s="15"/>
+      <c r="AI84" s="15"/>
+      <c r="AJ84" s="15"/>
+      <c r="AK84" s="15"/>
+      <c r="AL84" s="15"/>
+      <c r="AM84" s="15"/>
+      <c r="AN84" s="15"/>
+      <c r="AO84" s="15"/>
+      <c r="AP84" s="15"/>
+      <c r="AQ84" s="15"/>
       <c r="AR84" s="1" t="s">
         <v>50</v>
       </c>
@@ -14004,251 +14001,251 @@
       </c>
     </row>
     <row r="96" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="15"/>
-      <c r="S96" s="15"/>
-      <c r="T96" s="15"/>
-      <c r="U96" s="15"/>
-      <c r="V96" s="15"/>
-      <c r="W96" s="15"/>
-      <c r="X96" s="15"/>
-      <c r="Y96" s="15"/>
-      <c r="Z96" s="15"/>
-      <c r="AA96" s="15"/>
-      <c r="AB96" s="15"/>
-      <c r="AC96" s="15"/>
-      <c r="AD96" s="15"/>
-      <c r="AE96" s="15"/>
-      <c r="AF96" s="15"/>
-      <c r="AG96" s="15"/>
-      <c r="AH96" s="15"/>
-      <c r="AI96" s="15"/>
-      <c r="AJ96" s="15"/>
-      <c r="AK96" s="15"/>
-      <c r="AL96" s="15"/>
-      <c r="AM96" s="15"/>
-      <c r="AN96" s="15"/>
-      <c r="AO96" s="15"/>
-      <c r="AP96" s="15"/>
-      <c r="AQ96" s="15"/>
-      <c r="AR96" s="15"/>
-      <c r="AS96" s="15"/>
-      <c r="AT96" s="15"/>
-      <c r="AU96" s="15"/>
-      <c r="AV96" s="15"/>
-      <c r="AW96" s="15"/>
-      <c r="AX96" s="15"/>
-      <c r="AY96" s="15"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="14"/>
+      <c r="R96" s="14"/>
+      <c r="S96" s="14"/>
+      <c r="T96" s="14"/>
+      <c r="U96" s="14"/>
+      <c r="V96" s="14"/>
+      <c r="W96" s="14"/>
+      <c r="X96" s="14"/>
+      <c r="Y96" s="14"/>
+      <c r="Z96" s="14"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="14"/>
+      <c r="AC96" s="14"/>
+      <c r="AD96" s="14"/>
+      <c r="AE96" s="14"/>
+      <c r="AF96" s="14"/>
+      <c r="AG96" s="14"/>
+      <c r="AH96" s="14"/>
+      <c r="AI96" s="14"/>
+      <c r="AJ96" s="14"/>
+      <c r="AK96" s="14"/>
+      <c r="AL96" s="14"/>
+      <c r="AM96" s="14"/>
+      <c r="AN96" s="14"/>
+      <c r="AO96" s="14"/>
+      <c r="AP96" s="14"/>
+      <c r="AQ96" s="14"/>
+      <c r="AR96" s="14"/>
+      <c r="AS96" s="14"/>
+      <c r="AT96" s="14"/>
+      <c r="AU96" s="14"/>
+      <c r="AV96" s="14"/>
+      <c r="AW96" s="14"/>
+      <c r="AX96" s="14"/>
+      <c r="AY96" s="14"/>
     </row>
     <row r="97" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="16" t="s">
+      <c r="F97" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G97" s="16" t="s">
+      <c r="G97" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H97" s="16" t="s">
+      <c r="H97" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I97" s="16" t="s">
+      <c r="I97" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J97" s="16" t="s">
+      <c r="J97" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K97" s="16" t="s">
+      <c r="K97" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L97" s="16" t="s">
+      <c r="L97" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M97" s="16" t="s">
+      <c r="M97" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N97" s="16" t="s">
+      <c r="N97" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O97" s="16" t="s">
+      <c r="O97" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P97" s="16" t="s">
+      <c r="P97" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q97" s="16" t="s">
+      <c r="Q97" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R97" s="16" t="s">
+      <c r="R97" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S97" s="16" t="s">
+      <c r="S97" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T97" s="16" t="s">
+      <c r="T97" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U97" s="16" t="s">
+      <c r="U97" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="V97" s="16" t="s">
+      <c r="V97" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="W97" s="16" t="s">
+      <c r="W97" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X97" s="16" t="s">
+      <c r="X97" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Y97" s="16" t="s">
+      <c r="Y97" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Z97" s="16" t="s">
+      <c r="Z97" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AA97" s="16" t="s">
+      <c r="AA97" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AB97" s="16" t="s">
+      <c r="AB97" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AC97" s="16" t="s">
+      <c r="AC97" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AD97" s="16" t="s">
+      <c r="AD97" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AE97" s="16" t="s">
+      <c r="AE97" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AF97" s="16" t="s">
+      <c r="AF97" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AG97" s="16" t="s">
+      <c r="AG97" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AH97" s="16" t="s">
+      <c r="AH97" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AI97" s="16" t="s">
+      <c r="AI97" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AJ97" s="16" t="s">
+      <c r="AJ97" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AK97" s="16" t="s">
+      <c r="AK97" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AL97" s="16" t="s">
+      <c r="AL97" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AM97" s="16" t="s">
+      <c r="AM97" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AN97" s="16" t="s">
+      <c r="AN97" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AO97" s="16" t="s">
+      <c r="AO97" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AP97" s="16" t="s">
+      <c r="AP97" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AQ97" s="16" t="s">
+      <c r="AQ97" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AR97" s="16" t="s">
+      <c r="AR97" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AS97" s="16"/>
-      <c r="AT97" s="16" t="s">
+      <c r="AS97" s="15"/>
+      <c r="AT97" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AU97" s="16"/>
-      <c r="AV97" s="16" t="s">
+      <c r="AU97" s="15"/>
+      <c r="AV97" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AW97" s="16"/>
-      <c r="AX97" s="16" t="s">
+      <c r="AW97" s="15"/>
+      <c r="AX97" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AY97" s="16"/>
+      <c r="AY97" s="15"/>
     </row>
     <row r="98" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="16"/>
-      <c r="S98" s="16"/>
-      <c r="T98" s="16"/>
-      <c r="U98" s="16"/>
-      <c r="V98" s="16"/>
-      <c r="W98" s="16"/>
-      <c r="X98" s="16"/>
-      <c r="Y98" s="16"/>
-      <c r="Z98" s="16"/>
-      <c r="AA98" s="16"/>
-      <c r="AB98" s="16"/>
-      <c r="AC98" s="16"/>
-      <c r="AD98" s="16"/>
-      <c r="AE98" s="16"/>
-      <c r="AF98" s="16"/>
-      <c r="AG98" s="16"/>
-      <c r="AH98" s="16"/>
-      <c r="AI98" s="16"/>
-      <c r="AJ98" s="16"/>
-      <c r="AK98" s="16"/>
-      <c r="AL98" s="16"/>
-      <c r="AM98" s="16"/>
-      <c r="AN98" s="16"/>
-      <c r="AO98" s="16"/>
-      <c r="AP98" s="16"/>
-      <c r="AQ98" s="16"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="15"/>
+      <c r="S98" s="15"/>
+      <c r="T98" s="15"/>
+      <c r="U98" s="15"/>
+      <c r="V98" s="15"/>
+      <c r="W98" s="15"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="15"/>
+      <c r="AA98" s="15"/>
+      <c r="AB98" s="15"/>
+      <c r="AC98" s="15"/>
+      <c r="AD98" s="15"/>
+      <c r="AE98" s="15"/>
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="15"/>
+      <c r="AH98" s="15"/>
+      <c r="AI98" s="15"/>
+      <c r="AJ98" s="15"/>
+      <c r="AK98" s="15"/>
+      <c r="AL98" s="15"/>
+      <c r="AM98" s="15"/>
+      <c r="AN98" s="15"/>
+      <c r="AO98" s="15"/>
+      <c r="AP98" s="15"/>
+      <c r="AQ98" s="15"/>
       <c r="AR98" s="1" t="s">
         <v>50</v>
       </c>
@@ -16476,22 +16473,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF517848-C14A-491B-887D-F61501EFECE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C22080B-9AF4-4853-AD4D-63FD70DDC53A}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" ht="42" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>128</v>
@@ -16509,26 +16506,26 @@
         <v>132</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="3">
         <v>4974</v>
       </c>
@@ -16564,10 +16561,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="3">
         <v>88</v>
       </c>
@@ -16603,10 +16600,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="3">
         <v>52</v>
       </c>
@@ -16642,10 +16639,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="3">
         <v>44</v>
       </c>
@@ -16681,10 +16678,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="3">
         <v>89</v>
       </c>
@@ -16720,10 +16717,10 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="3">
         <v>86</v>
       </c>
@@ -16759,10 +16756,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3">
         <v>104</v>
       </c>
@@ -16798,10 +16795,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="3">
         <v>110</v>
       </c>
@@ -16837,10 +16834,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3">
         <v>122</v>
       </c>
@@ -16876,10 +16873,10 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3">
         <v>122</v>
       </c>
@@ -16915,10 +16912,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="3">
         <v>126</v>
       </c>
@@ -16954,10 +16951,10 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3">
         <v>121</v>
       </c>
@@ -16993,10 +16990,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="3">
         <v>107</v>
       </c>
@@ -17032,10 +17029,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="3">
         <v>145</v>
       </c>
@@ -17071,10 +17068,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="3">
         <v>102</v>
       </c>
@@ -17110,10 +17107,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="3">
         <v>132</v>
       </c>
@@ -17149,10 +17146,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="3">
         <v>116</v>
       </c>
@@ -17188,10 +17185,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="3">
         <v>148</v>
       </c>
@@ -17227,10 +17224,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="3">
         <v>116</v>
       </c>
@@ -17266,10 +17263,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="3">
         <v>125</v>
       </c>
@@ -17305,10 +17302,10 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="3">
         <v>109</v>
       </c>
@@ -17344,10 +17341,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="3">
         <v>116</v>
       </c>
@@ -17383,10 +17380,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="3">
         <v>87</v>
       </c>
@@ -17422,10 +17419,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="3">
         <v>117</v>
       </c>
@@ -17461,10 +17458,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="3">
         <v>83</v>
       </c>
@@ -17500,10 +17497,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="3">
         <v>122</v>
       </c>
@@ -17539,10 +17536,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="3">
         <v>106</v>
       </c>
@@ -17578,10 +17575,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="3">
         <v>87</v>
       </c>
@@ -17617,10 +17614,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="3">
         <v>75</v>
       </c>
@@ -17656,10 +17653,10 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="3">
         <v>99</v>
       </c>
@@ -17695,10 +17692,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="3">
         <v>55</v>
       </c>
@@ -17734,10 +17731,10 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="3">
         <v>105</v>
       </c>
@@ -17773,10 +17770,10 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="3">
         <v>90</v>
       </c>
@@ -17812,10 +17809,10 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="3">
         <v>79</v>
       </c>
@@ -17851,10 +17848,10 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="3">
         <v>72</v>
       </c>
@@ -17890,10 +17887,10 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="3">
         <v>87</v>
       </c>
@@ -17929,10 +17926,10 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="3">
         <v>59</v>
       </c>
@@ -17968,10 +17965,10 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="3">
         <v>66</v>
       </c>
@@ -18007,10 +18004,10 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="3">
         <v>45</v>
       </c>
@@ -18046,10 +18043,10 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="16"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="3">
         <v>54</v>
       </c>
@@ -18085,10 +18082,10 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="16"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="3">
         <v>46</v>
       </c>
@@ -18124,10 +18121,10 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="16"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="3">
         <v>1160</v>
       </c>
@@ -18163,10 +18160,10 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="3">
@@ -18204,8 +18201,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="3">
@@ -18243,10 +18240,10 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="3">
@@ -18284,8 +18281,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="3">
@@ -18323,10 +18320,10 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="4">
@@ -18364,8 +18361,8 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="5">
@@ -18402,11 +18399,11 @@
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+    <row r="50" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="3">
@@ -18444,8 +18441,8 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="3">
@@ -18483,50 +18480,54 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="47">
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
